--- a/SENAI-Sprint.1-BD/1.6/Modelo-Fisico.xlsx
+++ b/SENAI-Sprint.1-BD/1.6/Modelo-Fisico.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flávia\Documents\Python Scripts\Técnico\Segundo semestre\SENAI-Segundo.Semestre\SENAI-Sprint.1-BD\1.6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Flávia\Documents\Técnico\Segundo semestre\SENAI-Segundo.Semestre\SENAI-Sprint.1-BD\1.6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FADED9E-B0A5-4889-B29C-EA8D12A57193}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C2EA54-B612-4528-AE48-BD9E5AF24A2C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20520" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00267F44-AF11-48F9-B871-E9C2996A54E6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>Nome</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>444.555.666-77</t>
-  </si>
-  <si>
-    <t>777.888.999-00</t>
   </si>
   <si>
     <t>Data de ínico</t>
@@ -296,19 +293,19 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -642,7 +639,7 @@
   <dimension ref="B2:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,17 +658,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="F2" s="16" t="s">
+      <c r="B2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="F2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
     </row>
@@ -689,19 +686,19 @@
         <v>6</v>
       </c>
       <c r="G3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
@@ -770,7 +767,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" s="6">
         <v>3</v>
@@ -815,43 +812,43 @@
       <c r="G8" s="12"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="17"/>
+      <c r="B9" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="16"/>
       <c r="G9" s="12"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="16"/>
+      <c r="I10" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="17"/>
-      <c r="I10" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="19"/>
+      <c r="J10" s="18"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>4</v>
@@ -862,7 +859,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
@@ -874,7 +871,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
@@ -882,13 +879,13 @@
         <v>2</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I13" s="8">
         <v>2</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -896,25 +893,25 @@
         <v>3</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I14" s="8">
         <v>3</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="18"/>
+      <c r="B15" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="17"/>
       <c r="F15" s="1">
         <v>4</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
@@ -922,7 +919,7 @@
         <v>6</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
